--- a/models/evaluation_result/Confusion Matrix.xlsx
+++ b/models/evaluation_result/Confusion Matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elroylo/Documents/GitHub/fyp-2024/models/evaluation_result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB531BD6-4060-0D43-AA26-AA49CA4DA02C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF108D7D-5D0D-824E-A2D6-56723AB1408A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14520" yWindow="0" windowWidth="14280" windowHeight="18000" firstSheet="4" activeTab="6" xr2:uid="{DDFF7446-8C76-014A-B01B-AD172B75E6F0}"/>
+    <workbookView xWindow="6960" yWindow="500" windowWidth="21840" windowHeight="16080" activeTab="2" xr2:uid="{DDFF7446-8C76-014A-B01B-AD172B75E6F0}"/>
   </bookViews>
   <sheets>
     <sheet name="SVM (All features)" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Logistic Regression (Selected)" sheetId="3" r:id="rId6"/>
     <sheet name="Benchmark" sheetId="1" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -85,7 +85,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -132,7 +132,7 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -842,7 +842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D0D6A96-0F44-4C49-A9DF-10732A8CA9FE}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
@@ -868,18 +868,18 @@
       </c>
       <c r="F1">
         <f>B1+B3+B5+B7+B9</f>
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="G1">
         <f>C1+C3+C5+C7+C9</f>
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="2">
         <f>G2/(G2+G1)</f>
-        <v>0.2196969696969697</v>
+        <v>0.13636363636363635</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -891,18 +891,18 @@
       </c>
       <c r="F2">
         <f>B2+B4+B6+B8+B10</f>
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G2">
         <f>C2+C4+C6+C8+C10</f>
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="2">
         <f>G2/(G2+F2)</f>
-        <v>0.60416666666666663</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -910,32 +910,32 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
         <v>8</v>
       </c>
       <c r="J3" s="2">
         <f>(2*J1*J2)/(J1+J2)</f>
-        <v>0.32222222222222224</v>
+        <v>0.19999999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
         <v>9</v>
       </c>
       <c r="J4" s="2">
         <f>(F1+G2)/SUM(F1:G2)</f>
-        <v>0.65142857142857147</v>
+        <v>0.58857142857142852</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -943,25 +943,25 @@
         <v>2</v>
       </c>
       <c r="B5" s="1">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I6" t="s">
         <v>10</v>
       </c>
       <c r="J6" s="4">
-        <v>0.58703691000000002</v>
+        <v>0.68703691</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -969,18 +969,18 @@
         <v>3</v>
       </c>
       <c r="B7" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -988,10 +988,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="1">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1353,7 +1353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD981662-0D94-6447-9588-4902786194AE}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
@@ -1516,7 +1516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC0CF7B5-81EB-E948-96F9-7EB6535FC766}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
